--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2D1D5-A970-944E-8655-DE9827F6BB06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8F5746-27F3-2E46-A5C2-7C6FFDDA39CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="10940" windowWidth="40620" windowHeight="17740" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
+    <workbookView xWindow="4000" yWindow="600" windowWidth="40620" windowHeight="17740" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -153,6 +154,329 @@
   </si>
   <si>
     <t>2011-08-18-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本大学</t>
+  </si>
+  <si>
+    <t>2011-06-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉、日本</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日大塑性研究会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通流渋滞実験の詳細データ</t>
+  </si>
+  <si>
+    <t>中山章宏、福井稔、長谷部勝也、菊池誠、西成活裕、杉山雄規、只木進一、湯川諭</t>
+  </si>
+  <si>
+    <t>名古屋大学</t>
+    <rPh sb="0" eb="1">
+      <t>ナゴヤダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第13回交通流のシミュレーションシンポジウム</t>
+  </si>
+  <si>
+    <t>原野和也、湯川諭</t>
+  </si>
+  <si>
+    <t>上田光生、湯川諭</t>
+  </si>
+  <si>
+    <t>多分散系の摩擦シミュレーション</t>
+  </si>
+  <si>
+    <t>Creutzのセルオートマトンを用いた2次元Isingモデルによる界面系の熱伝導計算</t>
+  </si>
+  <si>
+    <t>物性研短期研究会「計算物理学の進展」</t>
+  </si>
+  <si>
+    <t>湯川諭</t>
+  </si>
+  <si>
+    <t>粒子シミュレーションによる非平衡現象へのアプローチ</t>
+  </si>
+  <si>
+    <t>東京大学</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉、日本</t>
+    <rPh sb="0" eb="1">
+      <t>チバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粉体物理の現状と展望</t>
+  </si>
+  <si>
+    <t>京都大学</t>
+  </si>
+  <si>
+    <t>分子動力学法による多分散系の摩擦シミュレーション</t>
+  </si>
+  <si>
+    <t>湯川諭、伊藤伸泰</t>
+  </si>
+  <si>
+    <t>二成分Lennard-Jones粒子を用いた衝撃波管シミュレーション</t>
+  </si>
+  <si>
+    <t>複雑流体の数理とシミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己駆動散逸粒子系の物理</t>
+  </si>
+  <si>
+    <t>国際高等研究所</t>
+    <rPh sb="0" eb="2">
+      <t>コクサイコウトウケンキュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二成分Lennard-Jones粒子を用いた大規模衝撃波管シミュレーション</t>
+  </si>
+  <si>
+    <t>東京大学</t>
+    <rPh sb="0" eb="1">
+      <t>トウキョウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京、日本</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">複雑流体の数理とその応用 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分子動力学法による噴火シミュレーション</t>
+  </si>
+  <si>
+    <t>小串典子、湯川諭、伊藤伸泰</t>
+  </si>
+  <si>
+    <t>気液界面における温度構造</t>
+  </si>
+  <si>
+    <t>分子動力学法によるブルカノ式噴火のシミュレーション</t>
+  </si>
+  <si>
+    <t>複雑流体の構造形成と崩壊の数理</t>
+  </si>
+  <si>
+    <t>火山噴火のMDシミュレーション</t>
+  </si>
+  <si>
+    <t>第10回交通流のシミュレーションシンポジウム</t>
+  </si>
+  <si>
+    <t>ブルカノ式噴火のシミュレーション</t>
+  </si>
+  <si>
+    <t>大阪大学</t>
+  </si>
+  <si>
+    <t>大阪、日本</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山中湖</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマナカコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山梨、日本</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマナシニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定領域研究「火山爆発のダイナミックス」平成15年度シンポジウム</t>
+  </si>
+  <si>
+    <t>伊藤伸泰、湯川諭</t>
+  </si>
+  <si>
+    <t>火山爆発のDEMシミュレーション</t>
+  </si>
+  <si>
+    <t>第9回交通流のシミュレーションシンポジウム</t>
+  </si>
+  <si>
+    <t>福井稔、市川邦彦、吉田立、菊池誠、長谷部勝也、中山章宏、西成活裕、杉山雄規、只木進一、湯川諭</t>
+  </si>
+  <si>
+    <t>渋滞形成のサーキット実験</t>
+  </si>
+  <si>
+    <t>交通流時系列の揺らぎを読む</t>
+  </si>
+  <si>
+    <t>菊池誠、中山章宏、西成活裕、杉山雄規、只木進一、湯川諭</t>
+  </si>
+  <si>
+    <t>2007-12-06-07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2004-12-10-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2003-11-28-29</t>
+  </si>
+  <si>
+    <t>2003-11-28-29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2006-12-25-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2007-11-01-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2006-11-15-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2005-11-16-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2004-11-17-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2006-08-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3次元Lennard-Jones固体間の滑り摩擦</t>
+  </si>
+  <si>
+    <r>
+      <t>吉岡直樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、湯川諭、伊藤伸泰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吉岡直樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、Imre Varga、Ferenc Kun、湯川諭、伊藤伸泰</t>
+    </r>
+  </si>
+  <si>
+    <t>イジング双極子粒子の凝集過程</t>
+  </si>
+  <si>
+    <t>2005-08-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双極子相互作用系の統計力学</t>
+  </si>
+  <si>
+    <t>2004-08-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2004-08-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2004-03-01-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国際高等研究所ワークショップ「隙間-自然、人間、社会の現象学-」(日付不明)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒズケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火山爆発夏の学校 (日付不明)</t>
+    <rPh sb="0" eb="5">
+      <t>(ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国際高等研究所ワークショップ「隙間-自然、人間、社会の現象学-」(日付不明)</t>
+    <rPh sb="0" eb="7">
+      <t>(ヒヅケフメイ)</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2006-03-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2005-03-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定領域研究「火山爆発のダイナミックス」平成17年度シンポジウム(日付不明)</t>
+    <rPh sb="0" eb="6">
+      <t>(ヒヅケフメイ)</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定領域研究「火山爆発のダイナミックス」平成16年度シンポジウム(日付不明)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -160,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +505,31 @@
       <color rgb="FF000000"/>
       <name val="Hiragino Kaku Gothic ProN"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +562,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,11 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899EF045-7AA2-474D-80F3-6F954183DE84}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -605,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">SUBSTITUTE(LEFT(A3,20)," ","_")</f>
+        <f t="shared" ref="D3:D67" si="0">SUBSTITUTE(LEFT(A3,20)," ","_")</f>
         <v>近接次数に依存した相互作用を持つ群れモデ</v>
       </c>
       <c r="E3" t="s">
@@ -717,151 +1081,547 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="23">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>SPH法を用いた乾燥破壊シミュレーション</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>交通流渋滞実験の詳細データ</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>Creutzのセルオートマトンを用いた2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>多分散系の摩擦シミュレーション</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>粒子シミュレーションによる非平衡現象への</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>分子動力学法による多分散系の摩擦シミュレ</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>二成分Lennard-Jones粒子を用</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23">
+      <c r="A15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>3次元Lennard-Jones固体間の</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
+        <v>自己駆動散逸粒子系の物理</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
+        <v>二成分Lennard-Jones粒子を用</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="23">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
+        <v>分子動力学法による噴火シミュレーション</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="23">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
+        <v>気液界面における温度構造</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="23">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
+        <v>分子動力学法によるブルカノ式噴火のシミュ</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="23">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
+        <v>火山噴火のMDシミュレーション</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="23">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
+        <v>ブルカノ式噴火のシミュレーション</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="23">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
+        <v>火山噴火のMDシミュレーション</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="23">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
+        <v>火山噴火のMDシミュレーション</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="23">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
+        <v>火山爆発のDEMシミュレーション</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="23">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
+        <v>渋滞形成のサーキット実験</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="23">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
+        <v>交通流時系列の揺らぎを読む</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="23">
+      <c r="A28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
+        <v>イジング双極子粒子の凝集過程</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="23">
+      <c r="A29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
+        <v>双極子相互作用系の統計力学</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="1:9">
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="1:9">
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1073,13 +1833,13 @@
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D108" si="1">SUBSTITUTE(LEFT(A67,20)," ","_")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D68:D109" si="1">SUBSTITUTE(LEFT(A68,20)," ","_")</f>
         <v/>
       </c>
     </row>
@@ -1319,6 +2079,12 @@
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8F5746-27F3-2E46-A5C2-7C6FFDDA39CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEE8659-0DA0-CC4F-817C-F65E08AAAA69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="600" windowWidth="40620" windowHeight="17740" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
+    <workbookView xWindow="5720" yWindow="460" windowWidth="43900" windowHeight="17240" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -479,12 +478,243 @@
     <t>特定領域研究「火山爆発のダイナミックス」平成16年度シンポジウム(日付不明)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>車線間相関 大型車の役割</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東名高速道路における流量揺らぎ</t>
+  </si>
+  <si>
+    <t>名古屋、日本</t>
+  </si>
+  <si>
+    <t>第8回交通流のシミュレーションシンポジウム</t>
+  </si>
+  <si>
+    <t>多様性を生む生態系のミニマルモデル</t>
+  </si>
+  <si>
+    <t>島田尚、湯川諭、伊藤伸泰</t>
+  </si>
+  <si>
+    <t>量子ダイナミクスにおける熱力学第二法則</t>
+  </si>
+  <si>
+    <t>箱根</t>
+    <rPh sb="0" eb="2">
+      <t>ハコネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摩擦の物理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子ラチェットとその周辺</t>
+  </si>
+  <si>
+    <t>湯川諭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第7回交通流のシミュレーションシンポジウム </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第7回交通流のシミュレーションシンポジウム </t>
+  </si>
+  <si>
+    <t>只木進一、菊池誠、杉山雄規、湯川諭</t>
+  </si>
+  <si>
+    <t>只木進一、菊池誠、杉山雄規、湯川諭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湯川諭、西成活裕、只木進一、杉山雄規、菊池誠</t>
+  </si>
+  <si>
+    <t>トンネル上流の渋滞形成 二車線モデルと実測の比較</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東名高速道路観測データからの知見(2)</t>
+  </si>
+  <si>
+    <t>非線形格子におけるエネルギー輸送</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第6回交通流のシミュレーションシンポジウム</t>
+  </si>
+  <si>
+    <t>菊地誠、杉山雄規、只木進一、湯川諭</t>
+  </si>
+  <si>
+    <t>非対称OptimalVelocity模型</t>
+  </si>
+  <si>
+    <t>流入のある高速道路での渋滞形成</t>
+  </si>
+  <si>
+    <t>東名高速道路観測データからの知見</t>
+  </si>
+  <si>
+    <t>CMOVモデルと輻輳交通流形成</t>
+  </si>
+  <si>
+    <t>第5回交通流のシミュレーションシンポジウム</t>
+  </si>
+  <si>
+    <t>1997-12-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物性物理の最前線(日付未定)</t>
+    <rPh sb="0" eb="4">
+      <t>(ヒヅケミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>籠坊</t>
+  </si>
+  <si>
+    <t>兵庫、日本</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子ラチェット</t>
+    <rPh sb="0" eb="2">
+      <t>リョウシラチェット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通流における密度揺らぎ</t>
+  </si>
+  <si>
+    <t>湯川諭、菊池誠</t>
+  </si>
+  <si>
+    <t>交通流のシミュレーションシンポジウム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一次元交通流の数値シミュレーション</t>
+  </si>
+  <si>
+    <t>名古屋</t>
+    <rPh sb="0" eb="2">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋、日本</t>
+    <rPh sb="0" eb="1">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合写像を用いた一次元交通流のモデル</t>
+  </si>
+  <si>
+    <t>セルオートマトンによる交通流のシミュレーションシンポジウム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2002-11-29-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1998-11-27-28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000-11-24-25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1999-11-26-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1995-12-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1994-12-01-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000-11-15-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子ダイナミクスに関する研究会(日付不明)</t>
+    <rPh sb="0" eb="2">
+      <t>(ヒヅケフメイ)</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000-04-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物性研短期研究会「物性研究における計算物理」(日付不明)</t>
+    <rPh sb="0" eb="8">
+      <t>(ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1995-08-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複合系ＩＩ--「要素と全体」・現象論の視座--(日付不明)</t>
+    <rPh sb="0" eb="3">
+      <t>(</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001-08-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都大学基礎物理学研究所ワークショップ"大自由度進化モデルの力学系研究"(日付不明)</t>
+    <rPh sb="0" eb="12">
+      <t>(ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複雑系 -- 内から外へと、外から内への情報生成 --日本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1994-10-05-07</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -531,6 +761,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -554,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +815,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,8 +1137,8 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1609,115 +1850,418 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="23">
+      <c r="A30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>車線間相関_大型車の役割</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="23">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>東名高速道路における流量揺らぎ</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="23">
+      <c r="A32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
+        <v>多様性を生む生態系のミニマルモデル</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="23">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
+        <v>量子ダイナミクスにおける熱力学第二法則</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="23">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
+        <v>量子ラチェットとその周辺</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="23">
+      <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
+        <v>トンネル上流の渋滞形成_二車線モデルと実</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="23">
+      <c r="A36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
+        <v>東名高速道路観測データからの知見(2)</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="23">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
+        <v>非線形格子におけるエネルギー輸送</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="23">
+      <c r="A38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
+        <v>非対称OptimalVelocity模型</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="23">
+      <c r="A39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
+        <v>流入のある高速道路での渋滞形成</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="23">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
+        <v>東名高速道路観測データからの知見</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="23">
+      <c r="A41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
+        <v>CMOVモデルと輻輳交通流形成</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="23">
+      <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
+        <v>量子ラチェット</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="23">
+      <c r="A43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
+        <v>交通流における密度揺らぎ</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="23">
+      <c r="A44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
+        <v>一次元交通流の数値シミュレーション</v>
+      </c>
+      <c r="E44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="23">
+      <c r="A45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
+        <v>結合写像を用いた一次元交通流のモデル</v>
+      </c>
+      <c r="E45" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="23">
+      <c r="A46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
+        <v>結合写像を用いた一次元交通流のモデル</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="1:9">
       <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEE8659-0DA0-CC4F-817C-F65E08AAAA69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11481CB8-388A-2044-A7E3-AF2C41E998A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5720" yWindow="460" windowWidth="43900" windowHeight="17240" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="165">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -707,6 +707,13 @@
   </si>
   <si>
     <t>1994-10-05-07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川、日本</t>
+    <rPh sb="0" eb="2">
+      <t>カナガワケン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1138,7 +1145,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1939,6 +1946,9 @@
       <c r="F33" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>155</v>
       </c>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11481CB8-388A-2044-A7E3-AF2C41E998A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130B890-422B-1649-8E4F-BF222FF11743}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="460" windowWidth="43900" windowHeight="17240" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
+    <workbookView xWindow="3400" yWindow="460" windowWidth="43900" windowHeight="17240" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名古屋、日本</t>
-    <rPh sb="0" eb="2">
-      <t>ナゴヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>近接次数に依存した相互作用を持つ群れモデルのシミュレーション</t>
   </si>
   <si>
@@ -124,13 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>京都、日本</t>
-    <rPh sb="0" eb="2">
-      <t>キョウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基研研究会2011「非平衡の物理 -ミクロとマクロの架け橋-」</t>
   </si>
   <si>
@@ -160,13 +146,6 @@
   </si>
   <si>
     <t>2011-06-16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>千葉、日本</t>
-    <rPh sb="0" eb="2">
-      <t>チバ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -218,13 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>千葉、日本</t>
-    <rPh sb="0" eb="1">
-      <t>チバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>粉体物理の現状と展望</t>
   </si>
   <si>
@@ -264,13 +236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京、日本</t>
-    <rPh sb="0" eb="2">
-      <t>トウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">複雑流体の数理とその応用 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -300,25 +265,11 @@
   </si>
   <si>
     <t>大阪大学</t>
-  </si>
-  <si>
-    <t>大阪、日本</t>
-    <rPh sb="0" eb="2">
-      <t>オオサカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>山中湖</t>
     <rPh sb="0" eb="2">
       <t>ヤマナカコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山梨、日本</t>
-    <rPh sb="0" eb="1">
-      <t>ヤマナシニホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -486,9 +437,6 @@
     <t>東名高速道路における流量揺らぎ</t>
   </si>
   <si>
-    <t>名古屋、日本</t>
-  </si>
-  <si>
     <t>第8回交通流のシミュレーションシンポジウム</t>
   </si>
   <si>
@@ -582,13 +530,6 @@
     <t>籠坊</t>
   </si>
   <si>
-    <t>兵庫、日本</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>量子ラチェット</t>
     <rPh sb="0" eb="2">
       <t>リョウシラチェット</t>
@@ -616,13 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名古屋、日本</t>
-    <rPh sb="0" eb="1">
-      <t>ナゴヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結合写像を用いた一次元交通流のモデル</t>
   </si>
   <si>
@@ -710,9 +644,112 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>神奈川、日本</t>
-    <rPh sb="0" eb="2">
+    <t>千種区、名古屋市、日本</t>
+    <rPh sb="0" eb="52">
+      <t>チクサク</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東区、名古屋市、日本</t>
+    <rPh sb="0" eb="31">
+      <t>ヒガシク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左京区、京都市、日本</t>
+    <rPh sb="0" eb="37">
+      <t>サキョウク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船橋市、千葉県、日本</t>
+    <rPh sb="0" eb="31">
+      <t>フナバシシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柏市、千葉県、日本</t>
+    <rPh sb="0" eb="27">
+      <t>カシワシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文京区、東京都、日本</t>
+    <rPh sb="0" eb="31">
+      <t>ブンキョウク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豊中市、大阪府、日本</t>
+    <rPh sb="0" eb="61">
+      <t>トヨナカシ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山中湖村、山梨県、日本</t>
+    <rPh sb="0" eb="48">
+      <t>ヤマナカコムラ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヤマナシニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木津川市、京都府、日本</t>
+    <rPh sb="0" eb="48">
+      <t>キヅガワシ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱根町、神奈川県、日本</t>
+    <rPh sb="0" eb="42">
+      <t>ハコネマチ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>カナガワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠山市、兵庫県、日本</t>
+    <rPh sb="0" eb="37">
+      <t>ササヤマシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1144,8 +1181,8 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1154,6 +1191,7 @@
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1203,18 +1241,18 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D67" si="0">SUBSTITUTE(LEFT(A3,20)," ","_")</f>
@@ -1224,1045 +1262,1045 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>SPH法を用いた乾燥破壊シミュレーション</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>SPH法を用いた乾燥破壊シミュレーション</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>構造ガラスにおけるエイジング効果のMDシ</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>SPH法を用いた乾燥破壊シミュレーション</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>SPH法を用いた乾燥破壊シミュレーション</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>体積収縮による破壊</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>SPH法を用いた乾燥破壊シミュレーション</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>交通流渋滞実験の詳細データ</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>交通流渋滞実験の詳細データ</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>Creutzのセルオートマトンを用いた2</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>多分散系の摩擦シミュレーション</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>粒子シミュレーションによる非平衡現象への</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="23">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>分子動力学法による多分散系の摩擦シミュレ</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>二成分Lennard-Jones粒子を用</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="23">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>3次元Lennard-Jones固体間の</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="23">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>自己駆動散逸粒子系の物理</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>二成分Lennard-Jones粒子を用</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>分子動力学法による噴火シミュレーション</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="23">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>気液界面における温度構造</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="23">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>分子動力学法によるブルカノ式噴火のシミュ</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="23">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>火山噴火のMDシミュレーション</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="23">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>ブルカノ式噴火のシミュレーション</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="23">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>火山噴火のMDシミュレーション</v>
+      </c>
+      <c r="E23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>火山噴火のMDシミュレーション</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="23">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>火山噴火のMDシミュレーション</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="23">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>火山爆発のDEMシミュレーション</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="23">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>渋滞形成のサーキット実験</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>渋滞形成のサーキット実験</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>交通流時系列の揺らぎを読む</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="23">
       <c r="A28" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>イジング双極子粒子の凝集過程</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>イジング双極子粒子の凝集過程</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="23">
       <c r="A29" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>双極子相互作用系の統計力学</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="23">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>車線間相関_大型車の役割</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="23">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>東名高速道路における流量揺らぎ</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="23">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>多様性を生む生態系のミニマルモデル</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="23">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>量子ダイナミクスにおける熱力学第二法則</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="23">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>量子ラチェットとその周辺</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="23">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>トンネル上流の渋滞形成_二車線モデルと実</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>110</v>
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>154</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="23">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>東名高速道路観測データからの知見(2)</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>110</v>
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>154</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="23">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>非線形格子におけるエネルギー輸送</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="23">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>非対称OptimalVelocity模型</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>110</v>
+        <v>140</v>
+      </c>
+      <c r="G38" t="s">
+        <v>154</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="23">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>流入のある高速道路での渋滞形成</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>110</v>
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>154</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="23">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>東名高速道路観測データからの知見</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>110</v>
+        <v>140</v>
+      </c>
+      <c r="G40" t="s">
+        <v>154</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="23">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>CMOVモデルと輻輳交通流形成</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>110</v>
+        <v>138</v>
+      </c>
+      <c r="G41" t="s">
+        <v>154</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="23">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>量子ラチェット</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="23">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>交通流における密度揺らぎ</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="23">
       <c r="A44" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>一次元交通流の数値シミュレーション</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="23">
       <c r="A45" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>結合写像を用いた一次元交通流のモデル</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="23">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>結合写像を用いた一次元交通流のモデル</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:9">

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130B890-422B-1649-8E4F-BF222FF11743}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1025E0-CBE6-364F-A45A-1A9EF4A0D193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="460" windowWidth="43900" windowHeight="17240" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="47000" windowHeight="13900" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="167">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -644,113 +644,106 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>千種区、名古屋市、日本</t>
-    <rPh sb="0" eb="52">
+    <t>愛知県名古屋市千種区</t>
+    <rPh sb="0" eb="2">
+      <t>アイチケンナゴヤシ</t>
+    </rPh>
+    <rPh sb="64" eb="105">
       <t>チクサク</t>
     </rPh>
-    <rPh sb="106" eb="108">
+    <rPh sb="159" eb="161">
       <t>ナゴヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東区、名古屋市、日本</t>
-    <rPh sb="0" eb="31">
+    <t>京都府京都市左京区</t>
+    <rPh sb="0" eb="2">
+      <t>キョウトフキョウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県船橋市</t>
+    <rPh sb="0" eb="2">
+      <t>チバケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県柏市</t>
+    <rPh sb="0" eb="1">
+      <t>チバケンカシワシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都府木津川市</t>
+    <rPh sb="0" eb="1">
+      <t>キョウトフキヅガワシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都文京区</t>
+    <rPh sb="0" eb="1">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府豊中市</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山梨県山中湖村</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県箱根町</t>
+    <rPh sb="0" eb="2">
+      <t>カナガワケンハコネマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵庫県篠山市</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウゴケン</t>
+    </rPh>
+    <rPh sb="21" eb="48">
+      <t>ササヤマシ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋市東区</t>
+    <rPh sb="0" eb="2">
+      <t>ナゴヤシヒガシク</t>
+    </rPh>
+    <rPh sb="21" eb="42">
       <t>ヒガシク</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="45" eb="46">
       <t>ナゴヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左京区、京都市、日本</t>
-    <rPh sb="0" eb="37">
-      <t>サキョウク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キョウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>船橋市、千葉県、日本</t>
-    <rPh sb="0" eb="31">
-      <t>フナバシシ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>柏市、千葉県、日本</t>
-    <rPh sb="0" eb="27">
-      <t>カシワシ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>チバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文京区、東京都、日本</t>
-    <rPh sb="0" eb="31">
-      <t>ブンキョウク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>トウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>豊中市、大阪府、日本</t>
-    <rPh sb="0" eb="61">
-      <t>トヨナカシ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>オオサカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山中湖村、山梨県、日本</t>
-    <rPh sb="0" eb="48">
-      <t>ヤマナカコムラ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ヤマナシニホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木津川市、京都府、日本</t>
-    <rPh sb="0" eb="48">
-      <t>キヅガワシ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>キョウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>箱根町、神奈川県、日本</t>
-    <rPh sb="0" eb="42">
-      <t>ハコネマチ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カナガワケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>篠山市、兵庫県、日本</t>
-    <rPh sb="0" eb="37">
-      <t>ササヤマシ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウゴ</t>
-    </rPh>
+    <t>latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longitude</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1178,11 +1171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899EF045-7AA2-474D-80F3-6F954183DE84}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1191,10 +1184,10 @@
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="7" max="9" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,13 +1210,19 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23">
+    <row r="2" spans="1:11" ht="23">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,11 +1242,11 @@
       <c r="G2" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="23">
+    <row r="3" spans="1:11" ht="23">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1267,11 +1266,11 @@
       <c r="G3" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23">
+    <row r="4" spans="1:11" ht="23">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1289,13 +1288,13 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23">
+    <row r="5" spans="1:11" ht="23">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1313,13 +1312,13 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23">
+    <row r="6" spans="1:11" ht="23">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1337,13 +1336,13 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23">
+    <row r="7" spans="1:11" ht="23">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1361,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23">
+    <row r="8" spans="1:11" ht="23">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1385,13 +1384,13 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23">
+    <row r="9" spans="1:11" ht="23">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1411,11 +1410,11 @@
       <c r="G9" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23">
+    <row r="10" spans="1:11" ht="23">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1435,11 +1434,11 @@
       <c r="G10" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23">
+    <row r="11" spans="1:11" ht="23">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1459,11 +1458,11 @@
       <c r="G11" t="s">
         <v>154</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23">
+    <row r="12" spans="1:11" ht="23">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1481,13 +1480,13 @@
         <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23">
+    <row r="13" spans="1:11" ht="23">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1505,13 +1504,13 @@
         <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23">
+    <row r="14" spans="1:11" ht="23">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1529,13 +1528,13 @@
         <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23">
+    <row r="15" spans="1:11" ht="23">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -1553,13 +1552,13 @@
         <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23">
+    <row r="16" spans="1:11" ht="23">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1577,13 +1576,13 @@
         <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23">
+    <row r="17" spans="1:11" ht="23">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1603,11 +1602,11 @@
       <c r="G17" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23">
+    <row r="18" spans="1:11" ht="23">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1625,13 +1624,13 @@
         <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23">
+    <row r="19" spans="1:11" ht="23">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1649,13 +1648,13 @@
         <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
-      </c>
-      <c r="I19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23">
+    <row r="20" spans="1:11" ht="23">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1675,11 +1674,11 @@
       <c r="G20" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="23">
+    <row r="21" spans="1:11" ht="23">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1697,13 +1696,13 @@
         <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="23">
+    <row r="22" spans="1:11" ht="23">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1723,11 +1722,11 @@
       <c r="G22" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23">
+    <row r="23" spans="1:11" ht="23">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1745,13 +1744,13 @@
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="23">
+    <row r="24" spans="1:11" ht="23">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1771,11 +1770,13 @@
       <c r="G24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="23">
+    <row r="25" spans="1:11" ht="23">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1795,11 +1796,11 @@
       <c r="G25" t="s">
         <v>159</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="23">
+    <row r="26" spans="1:11" ht="23">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -1819,11 +1820,11 @@
       <c r="G26" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="23">
+    <row r="27" spans="1:11" ht="23">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1843,11 +1844,11 @@
       <c r="G27" t="s">
         <v>154</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="23">
+    <row r="28" spans="1:11" ht="23">
       <c r="A28" s="7" t="s">
         <v>88</v>
       </c>
@@ -1865,13 +1866,13 @@
         <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="23">
+    <row r="29" spans="1:11" ht="23">
       <c r="A29" s="7" t="s">
         <v>90</v>
       </c>
@@ -1889,13 +1890,13 @@
         <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="23">
+    <row r="30" spans="1:11" ht="23">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -1915,11 +1916,11 @@
       <c r="G30" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="23">
+    <row r="31" spans="1:11" ht="23">
       <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
@@ -1939,11 +1940,11 @@
       <c r="G31" t="s">
         <v>154</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="23">
+    <row r="32" spans="1:11" ht="23">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -1961,13 +1962,13 @@
         <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="23">
+    <row r="33" spans="1:11" ht="23">
       <c r="A33" s="1" t="s">
         <v>106</v>
       </c>
@@ -1985,13 +1986,13 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="23">
+    <row r="34" spans="1:11" ht="23">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -2009,13 +2010,13 @@
         <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="23">
+    <row r="35" spans="1:11" ht="23">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -2035,11 +2036,11 @@
       <c r="G35" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="23">
+    <row r="36" spans="1:11" ht="23">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -2059,11 +2060,11 @@
       <c r="G36" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="23">
+    <row r="37" spans="1:11" ht="23">
       <c r="A37" s="1" t="s">
         <v>118</v>
       </c>
@@ -2081,13 +2082,13 @@
         <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="23">
+    <row r="38" spans="1:11" ht="23">
       <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
@@ -2107,11 +2108,11 @@
       <c r="G38" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="23">
+    <row r="39" spans="1:11" ht="23">
       <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
@@ -2131,11 +2132,11 @@
       <c r="G39" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="23">
+    <row r="40" spans="1:11" ht="23">
       <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
@@ -2155,11 +2156,11 @@
       <c r="G40" t="s">
         <v>154</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="23">
+    <row r="41" spans="1:11" ht="23">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -2179,11 +2180,11 @@
       <c r="G41" t="s">
         <v>154</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="23">
+    <row r="42" spans="1:11" ht="23">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -2201,13 +2202,15 @@
         <v>126</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="K42" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="23">
+    <row r="43" spans="1:11" ht="23">
       <c r="A43" s="1" t="s">
         <v>130</v>
       </c>
@@ -2225,13 +2228,13 @@
         <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
-      </c>
-      <c r="I43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="23">
+    <row r="44" spans="1:11" ht="23">
       <c r="A44" s="1" t="s">
         <v>133</v>
       </c>
@@ -2249,13 +2252,15 @@
         <v>141</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="K44" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="23">
+    <row r="45" spans="1:11" ht="23">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -2273,13 +2278,15 @@
         <v>142</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="K45" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="23">
+    <row r="46" spans="1:11" ht="23">
       <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
@@ -2297,19 +2304,19 @@
         <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1025E0-CBE6-364F-A45A-1A9EF4A0D193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8111F715-FC5E-CA4D-A4DD-D9226EFB67B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="780" windowWidth="47000" windowHeight="13900" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -646,13 +647,7 @@
   <si>
     <t>愛知県名古屋市千種区</t>
     <rPh sb="0" eb="2">
-      <t>アイチケンナゴヤシ</t>
-    </rPh>
-    <rPh sb="64" eb="105">
-      <t>チクサク</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>ナゴヤ</t>
+      <t>アイチケンナゴヤシチクサクナゴヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -715,26 +710,14 @@
   <si>
     <t>兵庫県篠山市</t>
     <rPh sb="0" eb="2">
-      <t>ヒョウゴケン</t>
-    </rPh>
-    <rPh sb="21" eb="48">
-      <t>ササヤマシ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒョウゴ</t>
+      <t>ヒョウゴケンササヤマシヒョウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名古屋市東区</t>
     <rPh sb="0" eb="2">
-      <t>ナゴヤシヒガシク</t>
-    </rPh>
-    <rPh sb="21" eb="42">
-      <t>ヒガシク</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ナゴヤ</t>
+      <t>ナゴヤシヒガシクヒガシクナゴヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -829,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +838,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1160,8 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1242,6 +1228,12 @@
       <c r="G2" t="s">
         <v>154</v>
       </c>
+      <c r="H2">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I2">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,6 +1258,12 @@
       <c r="G3" t="s">
         <v>154</v>
       </c>
+      <c r="H3">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I3">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,6 +1288,12 @@
       <c r="G4" t="s">
         <v>155</v>
       </c>
+      <c r="H4">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I4">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1314,6 +1318,12 @@
       <c r="G5" t="s">
         <v>155</v>
       </c>
+      <c r="H5">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I5">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1338,6 +1348,12 @@
       <c r="G6" t="s">
         <v>155</v>
       </c>
+      <c r="H6">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I6">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1362,6 +1378,12 @@
       <c r="G7" t="s">
         <v>155</v>
       </c>
+      <c r="H7">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I7">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1386,6 +1408,12 @@
       <c r="G8" t="s">
         <v>156</v>
       </c>
+      <c r="H8" s="9">
+        <v>35.726208</v>
+      </c>
+      <c r="I8">
+        <v>140.05860000000001</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1410,6 +1438,12 @@
       <c r="G9" t="s">
         <v>154</v>
       </c>
+      <c r="H9">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I9">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1434,6 +1468,12 @@
       <c r="G10" t="s">
         <v>154</v>
       </c>
+      <c r="H10">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I10">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1458,6 +1498,12 @@
       <c r="G11" t="s">
         <v>154</v>
       </c>
+      <c r="H11">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I11">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1482,6 +1528,12 @@
       <c r="G12" t="s">
         <v>157</v>
       </c>
+      <c r="H12">
+        <v>35.9014411</v>
+      </c>
+      <c r="I12">
+        <v>139.93639160000001</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1506,6 +1558,12 @@
       <c r="G13" t="s">
         <v>155</v>
       </c>
+      <c r="H13">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I13">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1530,6 +1588,12 @@
       <c r="G14" t="s">
         <v>155</v>
       </c>
+      <c r="H14">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I14">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1554,6 +1618,12 @@
       <c r="G15" t="s">
         <v>158</v>
       </c>
+      <c r="H15">
+        <v>34.741410299999998</v>
+      </c>
+      <c r="I15">
+        <v>135.7753898</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1578,6 +1648,12 @@
       <c r="G16" t="s">
         <v>158</v>
       </c>
+      <c r="H16">
+        <v>34.741410299999998</v>
+      </c>
+      <c r="I16">
+        <v>135.7753898</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>94</v>
       </c>
@@ -1602,6 +1678,12 @@
       <c r="G17" t="s">
         <v>159</v>
       </c>
+      <c r="H17">
+        <v>35.712999799999999</v>
+      </c>
+      <c r="I17">
+        <v>139.76057280000001</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>99</v>
       </c>
@@ -1626,6 +1708,12 @@
       <c r="G18" t="s">
         <v>155</v>
       </c>
+      <c r="H18">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I18">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1650,6 +1738,12 @@
       <c r="G19" t="s">
         <v>155</v>
       </c>
+      <c r="H19">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I19">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1674,6 +1768,12 @@
       <c r="G20" t="s">
         <v>159</v>
       </c>
+      <c r="H20">
+        <v>35.712999799999999</v>
+      </c>
+      <c r="I20">
+        <v>139.76057280000001</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>100</v>
       </c>
@@ -1698,6 +1798,12 @@
       <c r="G21" t="s">
         <v>155</v>
       </c>
+      <c r="H21">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I21">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1722,6 +1828,12 @@
       <c r="G22" t="s">
         <v>160</v>
       </c>
+      <c r="H22">
+        <v>34.803782099999999</v>
+      </c>
+      <c r="I22">
+        <v>135.45411240000001</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1746,6 +1858,12 @@
       <c r="G23" t="s">
         <v>158</v>
       </c>
+      <c r="H23">
+        <v>34.741410299999998</v>
+      </c>
+      <c r="I23">
+        <v>135.7753898</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>96</v>
       </c>
@@ -1770,8 +1888,12 @@
       <c r="G24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3">
+        <v>35.416749000000003</v>
+      </c>
+      <c r="I24" s="3">
+        <v>138.8964995</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>95</v>
       </c>
@@ -1796,6 +1918,12 @@
       <c r="G25" t="s">
         <v>159</v>
       </c>
+      <c r="H25">
+        <v>35.712999799999999</v>
+      </c>
+      <c r="I25">
+        <v>139.76057280000001</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>67</v>
       </c>
@@ -1820,6 +1948,12 @@
       <c r="G26" t="s">
         <v>154</v>
       </c>
+      <c r="H26">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I26">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1844,6 +1978,12 @@
       <c r="G27" t="s">
         <v>154</v>
       </c>
+      <c r="H27">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I27">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>70</v>
       </c>
@@ -1868,6 +2008,12 @@
       <c r="G28" t="s">
         <v>158</v>
       </c>
+      <c r="H28">
+        <v>34.741410299999998</v>
+      </c>
+      <c r="I28">
+        <v>135.7753898</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>94</v>
       </c>
@@ -1892,6 +2038,12 @@
       <c r="G29" t="s">
         <v>158</v>
       </c>
+      <c r="H29">
+        <v>34.741410299999998</v>
+      </c>
+      <c r="I29">
+        <v>135.7753898</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>94</v>
       </c>
@@ -1916,6 +2068,12 @@
       <c r="G30" t="s">
         <v>154</v>
       </c>
+      <c r="H30">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I30">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>103</v>
       </c>
@@ -1940,6 +2098,12 @@
       <c r="G31" t="s">
         <v>154</v>
       </c>
+      <c r="H31">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I31">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>103</v>
       </c>
@@ -1964,6 +2128,12 @@
       <c r="G32" t="s">
         <v>155</v>
       </c>
+      <c r="H32">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I32">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>151</v>
       </c>
@@ -1988,6 +2158,12 @@
       <c r="G33" t="s">
         <v>162</v>
       </c>
+      <c r="H33">
+        <v>35.252982899999999</v>
+      </c>
+      <c r="I33">
+        <v>139.04386030000001</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2012,6 +2188,12 @@
       <c r="G34" t="s">
         <v>155</v>
       </c>
+      <c r="H34">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I34">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>108</v>
       </c>
@@ -2036,6 +2218,12 @@
       <c r="G35" t="s">
         <v>154</v>
       </c>
+      <c r="H35">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I35">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K35" s="1" t="s">
         <v>111</v>
       </c>
@@ -2060,6 +2248,12 @@
       <c r="G36" t="s">
         <v>154</v>
       </c>
+      <c r="H36">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I36">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K36" s="1" t="s">
         <v>112</v>
       </c>
@@ -2084,6 +2278,12 @@
       <c r="G37" t="s">
         <v>157</v>
       </c>
+      <c r="H37">
+        <v>35.9014411</v>
+      </c>
+      <c r="I37">
+        <v>139.93639160000001</v>
+      </c>
       <c r="K37" s="1" t="s">
         <v>147</v>
       </c>
@@ -2108,6 +2308,12 @@
       <c r="G38" t="s">
         <v>154</v>
       </c>
+      <c r="H38">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I38">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>119</v>
       </c>
@@ -2132,6 +2338,12 @@
       <c r="G39" t="s">
         <v>154</v>
       </c>
+      <c r="H39">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I39">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K39" s="1" t="s">
         <v>119</v>
       </c>
@@ -2156,6 +2368,12 @@
       <c r="G40" t="s">
         <v>154</v>
       </c>
+      <c r="H40">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I40">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K40" s="1" t="s">
         <v>119</v>
       </c>
@@ -2180,6 +2398,12 @@
       <c r="G41" t="s">
         <v>154</v>
       </c>
+      <c r="H41">
+        <v>35.153491000000002</v>
+      </c>
+      <c r="I41">
+        <v>136.96757299999999</v>
+      </c>
       <c r="K41" s="1" t="s">
         <v>125</v>
       </c>
@@ -2204,8 +2428,12 @@
       <c r="G42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="8">
+        <v>35.032056099999998</v>
+      </c>
+      <c r="I42" s="8">
+        <v>135.3228091</v>
+      </c>
       <c r="K42" s="1" t="s">
         <v>127</v>
       </c>
@@ -2230,6 +2458,12 @@
       <c r="G43" t="s">
         <v>155</v>
       </c>
+      <c r="H43">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I43">
+        <v>135.78553289999999</v>
+      </c>
       <c r="K43" s="1" t="s">
         <v>149</v>
       </c>
@@ -2254,8 +2488,12 @@
       <c r="G44" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="H44" s="8">
+        <v>35.173737099999997</v>
+      </c>
+      <c r="I44" s="8">
+        <v>136.90776220000001</v>
+      </c>
       <c r="K44" s="1" t="s">
         <v>132</v>
       </c>
@@ -2280,8 +2518,12 @@
       <c r="G45" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="H45" s="8">
+        <v>35.173737099999997</v>
+      </c>
+      <c r="I45" s="8">
+        <v>136.90776220000001</v>
+      </c>
       <c r="K45" s="1" t="s">
         <v>136</v>
       </c>
@@ -2305,6 +2547,12 @@
       </c>
       <c r="G46" t="s">
         <v>155</v>
+      </c>
+      <c r="H46">
+        <v>35.030811499999999</v>
+      </c>
+      <c r="I46">
+        <v>135.78553289999999</v>
       </c>
       <c r="K46" t="s">
         <v>152</v>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8111F715-FC5E-CA4D-A4DD-D9226EFB67B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13324CF2-0B3F-1040-8ACE-E31DFAB9E207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="780" windowWidth="47000" windowHeight="13900" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="50320" windowHeight="12060" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="330">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -729,12 +728,600 @@
     <t>longitude</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Freeway Jam I: 一次元モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池誠、湯川諭、只木進一</t>
+  </si>
+  <si>
+    <t>岡山大学</t>
+  </si>
+  <si>
+    <t>1993-10-12-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1993年日本物理学会秋の分科会</t>
+  </si>
+  <si>
+    <t>一次元交通流模型における自己組織化</t>
+  </si>
+  <si>
+    <t>静岡大学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1994-09-02-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1994年日本物理学会秋の分科会</t>
+  </si>
+  <si>
+    <t>神奈川大学</t>
+  </si>
+  <si>
+    <t>1995-03-28-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1995年日本物理学会第50回年会</t>
+  </si>
+  <si>
+    <t>結合写像を用いた一次元交通流のシミュレーション</t>
+  </si>
+  <si>
+    <t>一次元交通流モデルにおける密度揺らぎ</t>
+  </si>
+  <si>
+    <t>大阪府立大学</t>
+  </si>
+  <si>
+    <t>大阪府立大学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1995-09-27-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1995年日本物理学会秋の分科会</t>
+  </si>
+  <si>
+    <t>一次元交通流モデルにおける密度揺らぎII</t>
+  </si>
+  <si>
+    <t>金沢大学</t>
+  </si>
+  <si>
+    <t>1996-03-31-04-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1996年日本物理学会第51回年会</t>
+  </si>
+  <si>
+    <t>1996年日本物理学会秋の分科会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子ラチェット</t>
+  </si>
+  <si>
+    <t>山口大学</t>
+  </si>
+  <si>
+    <t>1996-10-01-04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最適速度関数を用いた結合写像交通流シミュレータ</t>
+  </si>
+  <si>
+    <t>量子ラチェット系における量子確率カレント</t>
+  </si>
+  <si>
+    <t>SQUIDによる量子ラチェット</t>
+  </si>
+  <si>
+    <t>只木進一、菊池誠、湯川諭、杉山雄規</t>
+  </si>
+  <si>
+    <t>湯川諭、菊池誠、多々良源、松川宏</t>
+  </si>
+  <si>
+    <t>多々良源、菊池誠、湯川諭、松川宏</t>
+  </si>
+  <si>
+    <t>名城大学</t>
+  </si>
+  <si>
+    <t>1997年日本物理学会第52回年会</t>
+  </si>
+  <si>
+    <t>1997-03-28-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湯川諭、菊池誠、多々良源、松川宏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池誠、只木進一、杉山雄規、湯川諭</t>
+  </si>
+  <si>
+    <t>菊池誠、只木進一、杉山雄規、湯川諭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多々良源、菊池誠、湯川諭、松川宏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子ラチェット2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最適速度関数を用いた結合写像交通流シミュレータII</t>
+  </si>
+  <si>
+    <t>量子ラチェット系における量子非平衡定常ダイナミクス</t>
+  </si>
+  <si>
+    <t>神戸大学</t>
+  </si>
+  <si>
+    <t>1997-10-05-08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1997年日本物理学会秋の分科会</t>
+  </si>
+  <si>
+    <t>雑音による輻輳交通流形成</t>
+  </si>
+  <si>
+    <t>量子ラチェット系における共鳴現象</t>
+  </si>
+  <si>
+    <t>開放端2車線交通流</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東邦大学および日本大学</t>
+  </si>
+  <si>
+    <t>1998-03-30-04-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1998年日本物理学会第53回年会</t>
+  </si>
+  <si>
+    <t>只木進一、菊池誠、湯川諭、杉山雄規</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑音による輻輳交通流形成II</t>
+  </si>
+  <si>
+    <t>琉球大学および沖縄国際大学</t>
+  </si>
+  <si>
+    <t>1998-09-25-28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1998年日本物理学会秋の分科会</t>
+  </si>
+  <si>
+    <t>島田尚、湯川諭、伊藤伸泰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上輝好、伊藤伸泰、湯川諭</t>
+  </si>
+  <si>
+    <t>湯川諭、島田尚、伊藤伸泰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池誠、只木進一、湯川諭、杉山雄規</t>
+  </si>
+  <si>
+    <t>絶滅、変異による食物連鎖の進化</t>
+  </si>
+  <si>
+    <t>ビリヤード系におけるエントロピー生成</t>
+  </si>
+  <si>
+    <t>絶滅と分裂をともなうゲーム力学系のダイナミクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合写像最適速度模型による合流系のシミュレーション</t>
+  </si>
+  <si>
+    <t>広島大学</t>
+  </si>
+  <si>
+    <t>広島大学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1999-03-28-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1999年日本物理学会第54回年会</t>
+  </si>
+  <si>
+    <t>1999年日本物理学会第54回年会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上輝好、湯川諭、伊藤伸泰</t>
+  </si>
+  <si>
+    <t>村上輝好、湯川諭、伊藤伸泰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島田尚、伊藤伸泰、湯川諭、斉藤圭司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非断熱遷移によって駆動される量子機械</t>
+  </si>
+  <si>
+    <t>非線型格子の熱伝導の次元依存性</t>
+  </si>
+  <si>
+    <t>２次元粒子系における熱伝導のシミュレーション</t>
+  </si>
+  <si>
+    <t>岩手大学</t>
+  </si>
+  <si>
+    <t>1999-09-24-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1999年日本物理学会秋の分科会</t>
+  </si>
+  <si>
+    <t>1999年日本物理学会秋の分科会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺宙志、湯川諭、伊藤伸泰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湯川諭、西成活裕、只木進一、杉山雄規、菊池誠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続パーコレーションモデルにおける多分散性の効果</t>
+  </si>
+  <si>
+    <t>可逆な力学系からのフーリエ型熱伝導則の実現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剛体球系の熱伝導率のシステムサイズ依存性</t>
+  </si>
+  <si>
+    <t>量子系におけるJarzynski等式</t>
+  </si>
+  <si>
+    <t>なぜ高速道路の追い越し車線は走行車線より混んでいるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通流はカオスか?</t>
+  </si>
+  <si>
+    <t>関西大学</t>
+  </si>
+  <si>
+    <t>2000-03-22-25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000年日本物理学会春の分科会</t>
+  </si>
+  <si>
+    <t>渡辺宙志、Hans-Georg Matuttis、湯川諭、伊藤伸泰</t>
+  </si>
+  <si>
+    <t>渡辺宙志、Hans-Georg Matuttis、湯川諭、伊藤伸泰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二車線交通流模型による隘路上流の渋滞形成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分子動力学法により楕円を用いて液晶の相転移を調べる</t>
+  </si>
+  <si>
+    <t>非平衡エネルギー輸送が駆動する固液共存状態</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多種共存系の探索と食物連鎖の進化</t>
+  </si>
+  <si>
+    <t>新潟大学</t>
+  </si>
+  <si>
+    <t>2000-09-22-25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000年日本物理学会第55回年次大会</t>
+  </si>
+  <si>
+    <t>生命自己組織化のモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本応用数理学会2000年度年会</t>
+  </si>
+  <si>
+    <t>東京工業大学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000-10-06-08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石渡竜也、湯川諭、伊藤伸泰</t>
+  </si>
+  <si>
+    <t>最上康太、湯川諭、伊藤伸泰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齊藤圭司、湯川諭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子系の非平衡ダイナミクスと熱力学量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子ラチェット系の流れの方向依存性とそのメカニズム</t>
+  </si>
+  <si>
+    <t>線型応答理論による体積粘性率の計算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流体中における物体間相互作用の数値計算</t>
+  </si>
+  <si>
+    <t>食物連鎖のモデルによる生態系の自己組織化へのアプローチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楕円モデルの分子動力学法と液晶相</t>
+  </si>
+  <si>
+    <t>非平衡状態における固相-液相界面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央大学</t>
+  </si>
+  <si>
+    <t>2001-03-27-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001年日本物理学会第56回年次大会</t>
+  </si>
+  <si>
+    <t>運動粒子の軌道についての数値計算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生態系進化のメカニズム</t>
+  </si>
+  <si>
+    <t>潤滑膜の分子動力学シミュレーション</t>
+  </si>
+  <si>
+    <t>2001年日本物理学会秋季大会</t>
+  </si>
+  <si>
+    <t>2001年日本物理学会秋季大会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳島文理大学</t>
+  </si>
+  <si>
+    <t>徳島文理大学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001-09-17-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剛体球系のクエット流における輸送係数の定量的評価</t>
+  </si>
+  <si>
+    <t>食物網 Size-Free モデルの性質と生態系</t>
+  </si>
+  <si>
+    <t>量子スピンラチェット</t>
+  </si>
+  <si>
+    <t>一次元の交通流モデルと熱力学</t>
+  </si>
+  <si>
+    <t>奥西巧一、齋藤圭司、湯川諭</t>
+  </si>
+  <si>
+    <t>立命館大学びわこ・くさつキャンパス</t>
+  </si>
+  <si>
+    <t>2002-03-24-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2002年日本物理学会第57回年会</t>
+  </si>
+  <si>
+    <t>湯川諭、齋藤圭司、奥西巧一</t>
+  </si>
+  <si>
+    <t>渡辺宙志、湯川諭、伊藤伸泰、Chin-Kun Hu</t>
+  </si>
+  <si>
+    <t>convectionのfreezingに対する影響</t>
+  </si>
+  <si>
+    <t>薄膜の潤滑特性における膜厚依存性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hamiltonian Mean-Field Model における準安定状態と Tsallis 統計</t>
+  </si>
+  <si>
+    <t>量子機械系としての量子スピンラチェット</t>
+  </si>
+  <si>
+    <t>浸透問題における有限サイズスケーリング関数のアスペクト比依存性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中部大学</t>
+  </si>
+  <si>
+    <t>2002-09-06-09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2002年日本物理学会秋季大会</t>
+  </si>
+  <si>
+    <t>2002年日本物理学会秋季大会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡山市北区</t>
+  </si>
+  <si>
+    <t>静岡市駿河区</t>
+  </si>
+  <si>
+    <t>神奈川県横浜市神奈川区</t>
+  </si>
+  <si>
+    <t>堺市中区学園町</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>石川県金沢市角間町</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>山口市吉田</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋市天白区</t>
+  </si>
+  <si>
+    <t>神戸市灘区六甲台町</t>
+  </si>
+  <si>
+    <t>習志野市大久保</t>
+  </si>
+  <si>
+    <t>沖縄県中頭郡西原町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島県東広島市鏡山</t>
+  </si>
+  <si>
+    <t>岩手県盛岡市上田</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岩手県盛岡市上田</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府吹田市千里山</t>
+  </si>
+  <si>
+    <t>新潟市西区五十嵐</t>
+  </si>
+  <si>
+    <t>目黒区大岡山</t>
+  </si>
+  <si>
+    <t>徳島県徳島市山城町</t>
+  </si>
+  <si>
+    <t>東京都八王子市東中野</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀県草津市野路東</t>
+  </si>
+  <si>
+    <t>愛知県春日井市松本町</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -789,6 +1376,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="19.2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -812,7 +1434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +1463,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,11 +1794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899EF045-7AA2-474D-80F3-6F954183DE84}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1169,8 +1806,12 @@
     <col min="1" max="1" width="59.85546875" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2558,380 +3199,1694 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="24">
+      <c r="A47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>Freeway_Jam_I:_一次元モデ</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H47">
+        <v>34.685732899999998</v>
+      </c>
+      <c r="I47">
+        <v>133.9161379</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="23">
+      <c r="A48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
+        <v>一次元交通流模型における自己組織化</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="H48">
+        <v>34.965406000000002</v>
+      </c>
+      <c r="I48">
+        <v>138.4295113</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="23">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
+        <v>結合写像を用いた一次元交通流のモデル</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H49">
+        <v>35.484183000000002</v>
+      </c>
+      <c r="I49">
+        <v>139.620867</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="23">
+      <c r="A50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
+        <v>結合写像を用いた一次元交通流のシミュレー</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H50">
+        <v>34.544300100000001</v>
+      </c>
+      <c r="I50">
+        <v>135.50281770000001</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="23">
+      <c r="A51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
+        <v>一次元交通流モデルにおける密度揺らぎ</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H51">
+        <v>34.544300100000001</v>
+      </c>
+      <c r="I51">
+        <v>135.50281770000001</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="23">
+      <c r="A52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
+        <v>一次元交通流モデルにおける密度揺らぎII</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52">
+        <v>36.545985399999999</v>
+      </c>
+      <c r="I52">
+        <v>136.70873779999999</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="23">
+      <c r="A53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
+        <v>量子ラチェット</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53">
+        <v>34.1477541</v>
+      </c>
+      <c r="I53">
+        <v>131.46304760000001</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="27">
+      <c r="A54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
+        <v>最適速度関数を用いた結合写像交通流シミュ</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54">
+        <v>35.137739000000003</v>
+      </c>
+      <c r="I54">
+        <v>136.968098</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="27">
+      <c r="A55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
+        <v>量子ラチェット系における量子確率カレント</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55">
+        <v>35.137739000000003</v>
+      </c>
+      <c r="I55">
+        <v>136.968098</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="27">
+      <c r="A56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
+        <v>SQUIDによる量子ラチェット</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H56">
+        <v>35.137739000000003</v>
+      </c>
+      <c r="I56">
+        <v>136.968098</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="23">
+      <c r="A57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
+        <v>量子ラチェット系における量子非平衡定常ダ</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H57">
+        <v>34.725618500000003</v>
+      </c>
+      <c r="I57">
+        <v>135.23539529999999</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="23">
+      <c r="A58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
+        <v>最適速度関数を用いた結合写像交通流シミュ</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H58">
+        <v>34.725618500000003</v>
+      </c>
+      <c r="I58">
+        <v>135.23539529999999</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="23">
+      <c r="A59" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
+        <v>量子ラチェット2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H59">
+        <v>34.725618500000003</v>
+      </c>
+      <c r="I59">
+        <v>135.23539529999999</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="23">
+      <c r="A60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
+        <v>開放端2車線交通流</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H60">
+        <v>35.692179099999997</v>
+      </c>
+      <c r="I60">
+        <v>140.04741469999999</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="23">
+      <c r="A61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
+        <v>量子ラチェット系における共鳴現象</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H61">
+        <v>35.692179099999997</v>
+      </c>
+      <c r="I61">
+        <v>140.04741469999999</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="23">
+      <c r="A62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
+        <v>雑音による輻輳交通流形成</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H62">
+        <v>35.692179099999997</v>
+      </c>
+      <c r="I62">
+        <v>140.04741469999999</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="23">
+      <c r="A63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
+        <v>雑音による輻輳交通流形成II</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63">
+        <v>26.2546918</v>
+      </c>
+      <c r="I63">
+        <v>127.75953730000001</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="23">
+      <c r="A64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
+        <v>絶滅、変異による食物連鎖の進化</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H64">
+        <v>34.400679799999999</v>
+      </c>
+      <c r="I64">
+        <v>132.7134489</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="23">
+      <c r="A65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
+        <v>ビリヤード系におけるエントロピー生成</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H65">
+        <v>34.400679799999999</v>
+      </c>
+      <c r="I65">
+        <v>132.7134489</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="23">
+      <c r="A66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
+        <v>絶滅と分裂をともなうゲーム力学系のダイナ</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H66">
+        <v>34.400679799999999</v>
+      </c>
+      <c r="I66">
+        <v>132.7134489</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="23">
+      <c r="A67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D67" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
+        <v>結合写像最適速度模型による合流系のシミュ</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67">
+        <v>34.400679799999999</v>
+      </c>
+      <c r="I67">
+        <v>132.7134489</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="23">
+      <c r="A68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D109" si="1">SUBSTITUTE(LEFT(A68,20)," ","_")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="4:4">
+        <f t="shared" ref="D68:D112" si="1">SUBSTITUTE(LEFT(A68,20)," ","_")</f>
+        <v>２次元粒子系における熱伝導のシミュレーシ</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H68">
+        <v>39.715703099999999</v>
+      </c>
+      <c r="I68">
+        <v>141.13828290000001</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="23">
+      <c r="A69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
+        <v>非線型格子の熱伝導の次元依存性</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69">
+        <v>39.715703099999999</v>
+      </c>
+      <c r="I69">
+        <v>141.13828290000001</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="23">
+      <c r="A70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
+        <v>非断熱遷移によって駆動される量子機械</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H70">
+        <v>39.715703099999999</v>
+      </c>
+      <c r="I70">
+        <v>141.13828290000001</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="23">
+      <c r="A71" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
+        <v>連続パーコレーションモデルにおける多分散</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H71">
+        <v>34.774436999999999</v>
+      </c>
+      <c r="I71">
+        <v>135.51189890000001</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="23">
+      <c r="A72" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="4:4">
+        <v>可逆な力学系からのフーリエ型熱伝導則の実</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H72">
+        <v>34.774436999999999</v>
+      </c>
+      <c r="I72">
+        <v>135.51189890000001</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="23">
+      <c r="A73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
+        <v>剛体球系の熱伝導率のシステムサイズ依存性</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H73">
+        <v>34.774436999999999</v>
+      </c>
+      <c r="I73">
+        <v>135.51189890000001</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="23">
+      <c r="A74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="4:4">
+        <v>量子系におけるJarzynski等式</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H74">
+        <v>34.774436999999999</v>
+      </c>
+      <c r="I74">
+        <v>135.51189890000001</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="23">
+      <c r="A75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
+        <v>なぜ高速道路の追い越し車線は走行車線より</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H75">
+        <v>34.774436999999999</v>
+      </c>
+      <c r="I75">
+        <v>135.51189890000001</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="23">
+      <c r="A76" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
+        <v>交通流はカオスか?</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H76">
+        <v>34.774436999999999</v>
+      </c>
+      <c r="I76">
+        <v>135.51189890000001</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="23">
+      <c r="A77" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="4:4">
+        <v>多種共存系の探索と食物連鎖の進化</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H77">
+        <v>37.867708800000003</v>
+      </c>
+      <c r="I77">
+        <v>138.9418977</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="23">
+      <c r="A78" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="4:4">
+        <v>非平衡エネルギー輸送が駆動する固液共存状</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H78">
+        <v>37.867708800000003</v>
+      </c>
+      <c r="I78">
+        <v>138.9418977</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="23">
+      <c r="A79" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="4:4">
+        <v>分子動力学法により楕円を用いて液晶の相転</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H79">
+        <v>37.867708800000003</v>
+      </c>
+      <c r="I79">
+        <v>138.9418977</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="23">
+      <c r="A80" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="4:4">
+        <v>二車線交通流模型による隘路上流の渋滞形成</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H80">
+        <v>37.867708800000003</v>
+      </c>
+      <c r="I80">
+        <v>138.9418977</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="23">
+      <c r="A81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
+        <v>生命自己組織化のモデル</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H81">
+        <v>35.605122899999998</v>
+      </c>
+      <c r="I81">
+        <v>139.68353020000001</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="23">
+      <c r="A82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
+        <v>非平衡状態における固相-液相界面</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H82">
+        <v>35.6413899</v>
+      </c>
+      <c r="I82">
+        <v>139.40571610000001</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="23">
+      <c r="A83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="4:4">
+        <v>楕円モデルの分子動力学法と液晶相</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H83">
+        <v>35.6413899</v>
+      </c>
+      <c r="I83">
+        <v>139.40571610000001</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="23">
+      <c r="A84" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="4:4">
+        <v>食物連鎖のモデルによる生態系の自己組織化</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H84">
+        <v>35.6413899</v>
+      </c>
+      <c r="I84">
+        <v>139.40571610000001</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="23">
+      <c r="A85" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="4:4">
+        <v>流体中における物体間相互作用の数値計算</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H85">
+        <v>35.6413899</v>
+      </c>
+      <c r="I85">
+        <v>139.40571610000001</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="23">
+      <c r="A86" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="4:4">
+        <v>線型応答理論による体積粘性率の計算</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H86">
+        <v>35.6413899</v>
+      </c>
+      <c r="I86">
+        <v>139.40571610000001</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="23">
+      <c r="A87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="4:4">
+        <v>量子ラチェット系の流れの方向依存性とその</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H87">
+        <v>35.6413899</v>
+      </c>
+      <c r="I87">
+        <v>139.40571610000001</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="23">
+      <c r="A88" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="4:4">
+        <v>量子系の非平衡ダイナミクスと熱力学量</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H88">
+        <v>35.6413899</v>
+      </c>
+      <c r="I88">
+        <v>139.40571610000001</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="23">
+      <c r="A89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="4:4">
+        <v>潤滑膜の分子動力学シミュレーション</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H89">
+        <v>34.052733000000003</v>
+      </c>
+      <c r="I89">
+        <v>134.55730750000001</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="23">
+      <c r="A90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="4:4">
+        <v>生態系進化のメカニズム</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H90">
+        <v>34.052733000000003</v>
+      </c>
+      <c r="I90">
+        <v>134.55730750000001</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="23">
+      <c r="A91" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="4:4">
+        <v>運動粒子の軌道についての数値計算</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H91">
+        <v>34.052733000000003</v>
+      </c>
+      <c r="I91">
+        <v>134.55730750000001</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="23">
+      <c r="A92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="4:4">
+        <v>剛体球系のクエット流における輸送係数の定</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H92">
+        <v>34.982076999999997</v>
+      </c>
+      <c r="I92">
+        <v>135.963718</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="23">
+      <c r="A93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="4:4">
+        <v>食物網_Size-Free_モデルの性質</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H93">
+        <v>34.982076999999997</v>
+      </c>
+      <c r="I93">
+        <v>135.963718</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="23">
+      <c r="A94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="4:4">
+        <v>量子スピンラチェット</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H94">
+        <v>34.982076999999997</v>
+      </c>
+      <c r="I94">
+        <v>135.963718</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="23">
+      <c r="A95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="4:4">
+        <v>一次元の交通流モデルと熱力学</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H95">
+        <v>34.982076999999997</v>
+      </c>
+      <c r="I95">
+        <v>135.963718</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="23">
+      <c r="A96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
+        <v>convectionのfreezingに</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H96">
+        <v>35.273023000000002</v>
+      </c>
+      <c r="I96">
+        <v>137.01537880000001</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="23">
+      <c r="A97" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="4:4">
+        <v>薄膜の潤滑特性における膜厚依存性</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H97">
+        <v>35.273023000000002</v>
+      </c>
+      <c r="I97">
+        <v>137.01537880000001</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="23">
+      <c r="A98" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="4:4">
+        <v>Hamiltonian_Mean-Fie</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H98">
+        <v>35.273023000000002</v>
+      </c>
+      <c r="I98">
+        <v>137.01537880000001</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="23">
+      <c r="A99" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
+        <v>量子機械系としての量子スピンラチェット</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H99">
+        <v>35.273023000000002</v>
+      </c>
+      <c r="I99">
+        <v>137.01537880000001</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="23">
+      <c r="A100" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="4:4">
+        <v>浸透問題における有限サイズスケーリング関</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H100">
+        <v>35.273023000000002</v>
+      </c>
+      <c r="I100">
+        <v>137.01537880000001</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="D101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="1:11">
       <c r="D102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="1:11">
       <c r="D103" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="1:11">
       <c r="D104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="1:11">
       <c r="D105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="1:11">
       <c r="D106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="1:11">
       <c r="D107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="1:11">
       <c r="D108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="1:11">
       <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="D112" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuk/git-web/stsykw.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13324CF2-0B3F-1040-8ACE-E31DFAB9E207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A306B-98CF-C34C-A4F9-196CB3A3F393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="780" windowWidth="50320" windowHeight="12060" xr2:uid="{20C69EFE-B5CA-054C-B003-C53B6B330297}"/>
   </bookViews>
@@ -729,10 +729,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Freeway Jam I: 一次元モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>菊池誠、湯川諭、只木進一</t>
   </si>
   <si>
@@ -1019,9 +1015,6 @@
   <si>
     <t>なぜ高速道路の追い越し車線は走行車線より混んでいるか</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>交通流はカオスか?</t>
   </si>
   <si>
     <t>関西大学</t>
@@ -1315,6 +1308,14 @@
   </si>
   <si>
     <t>愛知県春日井市松本町</t>
+  </si>
+  <si>
+    <t>Freeway Jam I 一次元モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通流はカオスか</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1797,8 +1798,8 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96:I100"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3201,23 +3202,23 @@
     </row>
     <row r="47" spans="1:11" ht="24">
       <c r="A47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Freeway_Jam_I_一次元モデル</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>Freeway_Jam_I:_一次元モデ</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="G47" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H47">
         <v>34.685732899999998</v>
@@ -3226,12 +3227,12 @@
         <v>133.9161379</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="23">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>131</v>
@@ -3241,13 +3242,13 @@
         <v>一次元交通流模型における自己組織化</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="G48" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H48">
         <v>34.965406000000002</v>
@@ -3256,7 +3257,7 @@
         <v>138.4295113</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="23">
@@ -3271,13 +3272,13 @@
         <v>結合写像を用いた一次元交通流のモデル</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="G49" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H49">
         <v>35.484183000000002</v>
@@ -3286,12 +3287,12 @@
         <v>139.620867</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="23">
       <c r="A50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>131</v>
@@ -3301,13 +3302,13 @@
         <v>結合写像を用いた一次元交通流のシミュレー</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="G50" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H50">
         <v>34.544300100000001</v>
@@ -3316,12 +3317,12 @@
         <v>135.50281770000001</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="23">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>131</v>
@@ -3331,13 +3332,13 @@
         <v>一次元交通流モデルにおける密度揺らぎ</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H51">
         <v>34.544300100000001</v>
@@ -3346,12 +3347,12 @@
         <v>135.50281770000001</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="23">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>131</v>
@@ -3361,13 +3362,13 @@
         <v>一次元交通流モデルにおける密度揺らぎII</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="G52" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H52">
         <v>36.545985399999999</v>
@@ -3376,12 +3377,12 @@
         <v>136.70873779999999</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="23">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>110</v>
@@ -3391,13 +3392,13 @@
         <v>量子ラチェット</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="G53" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H53">
         <v>34.1477541</v>
@@ -3406,28 +3407,28 @@
         <v>131.46304760000001</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="27">
       <c r="A54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>最適速度関数を用いた結合写像交通流シミュ</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H54">
         <v>35.137739000000003</v>
@@ -3436,28 +3437,28 @@
         <v>136.968098</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="27">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>量子ラチェット系における量子確率カレント</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H55">
         <v>35.137739000000003</v>
@@ -3466,28 +3467,28 @@
         <v>136.968098</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="27">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>SQUIDによる量子ラチェット</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>SQUIDによる量子ラチェット</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H56">
         <v>35.137739000000003</v>
@@ -3496,28 +3497,28 @@
         <v>136.968098</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="23">
       <c r="A57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>量子ラチェット系における量子非平衡定常ダ</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>量子ラチェット系における量子非平衡定常ダ</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="G57" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H57">
         <v>34.725618500000003</v>
@@ -3526,28 +3527,28 @@
         <v>135.23539529999999</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="23">
       <c r="A58" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>最適速度関数を用いた結合写像交通流シミュ</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="G58" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H58">
         <v>34.725618500000003</v>
@@ -3556,28 +3557,28 @@
         <v>135.23539529999999</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="23">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>量子ラチェット2</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="G59" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H59">
         <v>34.725618500000003</v>
@@ -3586,28 +3587,28 @@
         <v>135.23539529999999</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="23">
       <c r="A60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>開放端2車線交通流</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>開放端2車線交通流</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="G60" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H60">
         <v>35.692179099999997</v>
@@ -3616,28 +3617,28 @@
         <v>140.04741469999999</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="23">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
         <v>量子ラチェット系における共鳴現象</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="G61" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H61">
         <v>35.692179099999997</v>
@@ -3646,28 +3647,28 @@
         <v>140.04741469999999</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="23">
       <c r="A62" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
         <v>雑音による輻輳交通流形成</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="G62" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H62">
         <v>35.692179099999997</v>
@@ -3676,28 +3677,28 @@
         <v>140.04741469999999</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="23">
       <c r="A63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>雑音による輻輳交通流形成II</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>雑音による輻輳交通流形成II</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="G63" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H63">
         <v>26.2546918</v>
@@ -3706,12 +3707,12 @@
         <v>127.75953730000001</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="23">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>105</v>
@@ -3721,13 +3722,13 @@
         <v>絶滅、変異による食物連鎖の進化</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="G64" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H64">
         <v>34.400679799999999</v>
@@ -3736,28 +3737,28 @@
         <v>132.7134489</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="23">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
         <v>ビリヤード系におけるエントロピー生成</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H65">
         <v>34.400679799999999</v>
@@ -3766,28 +3767,28 @@
         <v>132.7134489</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="23">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
         <v>絶滅と分裂をともなうゲーム力学系のダイナ</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H66">
         <v>34.400679799999999</v>
@@ -3796,28 +3797,28 @@
         <v>132.7134489</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="23">
       <c r="A67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>結合写像最適速度模型による合流系のシミュ</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>結合写像最適速度模型による合流系のシミュ</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H67">
         <v>34.400679799999999</v>
@@ -3826,28 +3827,28 @@
         <v>132.7134489</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="23">
       <c r="A68" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D112" si="1">SUBSTITUTE(LEFT(A68,20)," ","_")</f>
         <v>２次元粒子系における熱伝導のシミュレーシ</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="G68" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H68">
         <v>39.715703099999999</v>
@@ -3856,28 +3857,28 @@
         <v>141.13828290000001</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="23">
       <c r="A69" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
         <v>非線型格子の熱伝導の次元依存性</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="G69" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H69">
         <v>39.715703099999999</v>
@@ -3886,12 +3887,12 @@
         <v>141.13828290000001</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="23">
       <c r="A70" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>43</v>
@@ -3901,13 +3902,13 @@
         <v>非断熱遷移によって駆動される量子機械</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="G70" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H70">
         <v>39.715703099999999</v>
@@ -3916,28 +3917,28 @@
         <v>141.13828290000001</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="23">
       <c r="A71" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
         <v>連続パーコレーションモデルにおける多分散</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H71">
         <v>34.774436999999999</v>
@@ -3946,28 +3947,28 @@
         <v>135.51189890000001</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="23">
       <c r="A72" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
         <v>可逆な力学系からのフーリエ型熱伝導則の実</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H72">
         <v>34.774436999999999</v>
@@ -3976,28 +3977,28 @@
         <v>135.51189890000001</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="23">
       <c r="A73" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
         <v>剛体球系の熱伝導率のシステムサイズ依存性</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H73">
         <v>34.774436999999999</v>
@@ -4006,12 +4007,12 @@
         <v>135.51189890000001</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="23">
       <c r="A74" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>43</v>
@@ -4021,13 +4022,13 @@
         <v>量子系におけるJarzynski等式</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H74">
         <v>34.774436999999999</v>
@@ -4036,12 +4037,12 @@
         <v>135.51189890000001</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="23">
       <c r="A75" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>113</v>
@@ -4051,13 +4052,13 @@
         <v>なぜ高速道路の追い越し車線は走行車線より</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H75">
         <v>34.774436999999999</v>
@@ -4066,28 +4067,28 @@
         <v>135.51189890000001</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="23">
       <c r="A76" s="1" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
-        <v>交通流はカオスか?</v>
+        <v>交通流はカオスか</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H76">
         <v>34.774436999999999</v>
@@ -4096,12 +4097,12 @@
         <v>135.51189890000001</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="23">
       <c r="A77" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>105</v>
@@ -4111,13 +4112,13 @@
         <v>多種共存系の探索と食物連鎖の進化</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H77">
         <v>37.867708800000003</v>
@@ -4126,28 +4127,28 @@
         <v>138.9418977</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="23">
       <c r="A78" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
         <v>非平衡エネルギー輸送が駆動する固液共存状</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H78">
         <v>37.867708800000003</v>
@@ -4156,28 +4157,28 @@
         <v>138.9418977</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="23">
       <c r="A79" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
         <v>分子動力学法により楕円を用いて液晶の相転</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H79">
         <v>37.867708800000003</v>
@@ -4186,12 +4187,12 @@
         <v>138.9418977</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="23">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>113</v>
@@ -4201,13 +4202,13 @@
         <v>二車線交通流模型による隘路上流の渋滞形成</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H80">
         <v>37.867708800000003</v>
@@ -4216,12 +4217,12 @@
         <v>138.9418977</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="23">
       <c r="A81" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>105</v>
@@ -4231,13 +4232,13 @@
         <v>生命自己組織化のモデル</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H81">
         <v>35.605122899999998</v>
@@ -4246,28 +4247,28 @@
         <v>139.68353020000001</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="23">
       <c r="A82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
         <v>非平衡状態における固相-液相界面</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H82">
         <v>35.6413899</v>
@@ -4276,28 +4277,28 @@
         <v>139.40571610000001</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="23">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
         <v>楕円モデルの分子動力学法と液晶相</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H83">
         <v>35.6413899</v>
@@ -4306,12 +4307,12 @@
         <v>139.40571610000001</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="23">
       <c r="A84" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>105</v>
@@ -4321,13 +4322,13 @@
         <v>食物連鎖のモデルによる生態系の自己組織化</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H84">
         <v>35.6413899</v>
@@ -4336,28 +4337,28 @@
         <v>139.40571610000001</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="23">
       <c r="A85" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
         <v>流体中における物体間相互作用の数値計算</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H85">
         <v>35.6413899</v>
@@ -4366,28 +4367,28 @@
         <v>139.40571610000001</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="23">
       <c r="A86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
         <v>線型応答理論による体積粘性率の計算</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H86">
         <v>35.6413899</v>
@@ -4396,28 +4397,28 @@
         <v>139.40571610000001</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="23">
       <c r="A87" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
         <v>量子ラチェット系の流れの方向依存性とその</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H87">
         <v>35.6413899</v>
@@ -4426,12 +4427,12 @@
         <v>139.40571610000001</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="23">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>110</v>
@@ -4441,13 +4442,13 @@
         <v>量子系の非平衡ダイナミクスと熱力学量</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H88">
         <v>35.6413899</v>
@@ -4456,28 +4457,28 @@
         <v>139.40571610000001</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="23">
       <c r="A89" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
         <v>潤滑膜の分子動力学シミュレーション</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H89">
         <v>34.052733000000003</v>
@@ -4486,28 +4487,28 @@
         <v>134.55730750000001</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="23">
       <c r="A90" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
         <v>生態系進化のメカニズム</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="G90" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H90">
         <v>34.052733000000003</v>
@@ -4516,28 +4517,28 @@
         <v>134.55730750000001</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="23">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
         <v>運動粒子の軌道についての数値計算</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="G91" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H91">
         <v>34.052733000000003</v>
@@ -4546,28 +4547,28 @@
         <v>134.55730750000001</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="23">
       <c r="A92" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
         <v>剛体球系のクエット流における輸送係数の定</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H92">
         <v>34.982076999999997</v>
@@ -4576,28 +4577,28 @@
         <v>135.963718</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="23">
       <c r="A93" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
         <v>食物網_Size-Free_モデルの性質</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H93">
         <v>34.982076999999997</v>
@@ -4606,28 +4607,28 @@
         <v>135.963718</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="23">
       <c r="A94" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
         <v>量子スピンラチェット</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H94">
         <v>34.982076999999997</v>
@@ -4636,12 +4637,12 @@
         <v>135.963718</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="23">
       <c r="A95" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>43</v>
@@ -4651,13 +4652,13 @@
         <v>一次元の交通流モデルと熱力学</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H95">
         <v>34.982076999999997</v>
@@ -4666,28 +4667,28 @@
         <v>135.963718</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="23">
       <c r="A96" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
         <v>convectionのfreezingに</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H96">
         <v>35.273023000000002</v>
@@ -4696,28 +4697,28 @@
         <v>137.01537880000001</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="23">
       <c r="A97" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
         <v>薄膜の潤滑特性における膜厚依存性</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H97">
         <v>35.273023000000002</v>
@@ -4726,12 +4727,12 @@
         <v>137.01537880000001</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="23">
       <c r="A98" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>105</v>
@@ -4741,13 +4742,13 @@
         <v>Hamiltonian_Mean-Fie</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H98">
         <v>35.273023000000002</v>
@@ -4756,28 +4757,28 @@
         <v>137.01537880000001</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="23">
       <c r="A99" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
         <v>量子機械系としての量子スピンラチェット</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H99">
         <v>35.273023000000002</v>
@@ -4786,28 +4787,28 @@
         <v>137.01537880000001</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="23">
       <c r="A100" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
         <v>浸透問題における有限サイズスケーリング関</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H100">
         <v>35.273023000000002</v>
@@ -4816,7 +4817,7 @@
         <v>137.01537880000001</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:11">
